--- a/Warehouse/output/CA/IWFA_CA.xlsx
+++ b/Warehouse/output/CA/IWFA_CA.xlsx
@@ -436,7 +436,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Business Name</t>
+          <t>Name</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
@@ -446,7 +446,7 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Phone Number</t>
+          <t>Number</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
@@ -466,7 +466,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Origin</t>
+          <t>Source</t>
         </is>
       </c>
     </row>
